--- a/electromechanical.xlsx
+++ b/electromechanical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Altium-Lib-Tom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrne\Altium-Lib-Tom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B7517-5E64-4A86-BBF0-FF9F7C22D366}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B7719-8034-49E9-B9F5-AA23CF99CFD3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9338" xr2:uid="{78D20A57-1DED-49B5-B563-D879E43957A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9345" xr2:uid="{78D20A57-1DED-49B5-B563-D879E43957A9}"/>
   </bookViews>
   <sheets>
     <sheet name="potentiometers" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
   <si>
     <t>TPN</t>
   </si>
@@ -44,36 +44,15 @@
     <t>Tolerance</t>
   </si>
   <si>
-    <t>Power Rating</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Pulse-Rated</t>
-  </si>
-  <si>
     <t>Supplier 1</t>
   </si>
   <si>
     <t>Supplier 1 PN</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Through-Hole</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
     <t>Footprint Ref</t>
   </si>
   <si>
-    <t>RES-TH</t>
-  </si>
-  <si>
     <t>Manufacturer 1</t>
   </si>
   <si>
@@ -93,13 +72,232 @@
   </si>
   <si>
     <t>Library Ref</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Taper</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Through-Hole, Right Angle</t>
+  </si>
+  <si>
+    <t>Mounting Type</t>
+  </si>
+  <si>
+    <t>Mammoth Electronics</t>
+  </si>
+  <si>
+    <t>B10K</t>
+  </si>
+  <si>
+    <t>B1K</t>
+  </si>
+  <si>
+    <t>B2K</t>
+  </si>
+  <si>
+    <t>B5K</t>
+  </si>
+  <si>
+    <t>B25K</t>
+  </si>
+  <si>
+    <t>B50K</t>
+  </si>
+  <si>
+    <t>B100K</t>
+  </si>
+  <si>
+    <t>B250K</t>
+  </si>
+  <si>
+    <t>B500K</t>
+  </si>
+  <si>
+    <t>B1M</t>
+  </si>
+  <si>
+    <t>Mammoth</t>
+  </si>
+  <si>
+    <t>POT_16MM_TH_RA</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>25k</t>
+  </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>250k</t>
+  </si>
+  <si>
+    <t>500k</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>A1K</t>
+  </si>
+  <si>
+    <t>A2K</t>
+  </si>
+  <si>
+    <t>A5K</t>
+  </si>
+  <si>
+    <t>A10K</t>
+  </si>
+  <si>
+    <t>A25K</t>
+  </si>
+  <si>
+    <t>A50K</t>
+  </si>
+  <si>
+    <t>A100K</t>
+  </si>
+  <si>
+    <t>A250K</t>
+  </si>
+  <si>
+    <t>A500K</t>
+  </si>
+  <si>
+    <t>A1M</t>
+  </si>
+  <si>
+    <t>Logarithmic</t>
+  </si>
+  <si>
+    <t>Potentiometer, 10k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 1k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 25k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 50k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 100k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 250k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 500k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 1M, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 2k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 5k, Linear Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 1k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 2k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 5k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 10k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 25k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 50k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 100k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 250k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 500k, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 1M, Log Taper, 16mm, Single Gang, TH RA</t>
+  </si>
+  <si>
+    <t>Potentiometer, 1k, Linear Taper, Trim, Single Gang, Surface Mount</t>
+  </si>
+  <si>
+    <t>Surface Mount</t>
+  </si>
+  <si>
+    <t>Supplier 1 Link</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/tt-electronics-bi/35WR1KLFTR/987-1812-1-ND/8111752</t>
+  </si>
+  <si>
+    <t>TT Elecronics/Bl</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>35WR1KLFTR</t>
+  </si>
+  <si>
+    <t>987-1812-1-ND</t>
+  </si>
+  <si>
+    <t>POT_TT35W</t>
+  </si>
+  <si>
+    <t>Power (Watts)</t>
+  </si>
+  <si>
+    <t>Temperature Coefficient</t>
+  </si>
+  <si>
+    <t>±250ppm/°C</t>
+  </si>
+  <si>
+    <t>Size / Dimension</t>
+  </si>
+  <si>
+    <t>Rectangular - 0.144" x 0.118" Face x 0.067" H (3.65mm x 3.00mm x 1.70mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +312,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,12 +340,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,21 +661,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2836C16-527F-40CD-92B2-0E8CE5C6790A}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="4"/>
-    <col min="6" max="6" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="9" max="9" width="9" style="4"/>
+    <col min="11" max="11" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,25 +690,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -511,43 +717,916 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"POT-"&amp;TEXT(ROW()-1,"000000")</f>
+        <v>POT-000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" t="str">
-        <f>"RES-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>RES-000001</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E2">
-        <v>0.125</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A22" si="0">"POT-"&amp;TEXT(ROW()-1,"000000")</f>
+        <v>POT-000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18">
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>POT-000021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/electromechanical.xlsx
+++ b/electromechanical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrne\Altium-Lib-Tom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B7719-8034-49E9-B9F5-AA23CF99CFD3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD4399-41E2-4F61-8DB3-4BF780B58114}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9345" xr2:uid="{78D20A57-1DED-49B5-B563-D879E43957A9}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,8 +740,8 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>"POT-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>POT-000001</v>
+        <f>"POT-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>POT-0001</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -782,8 +782,8 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A22" si="0">"POT-"&amp;TEXT(ROW()-1,"000000")</f>
-        <v>POT-000002</v>
+        <f t="shared" ref="A3:A22" si="0">"POT-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>POT-0002</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -825,7 +825,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000003</v>
+        <v>POT-0003</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -867,7 +867,7 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000004</v>
+        <v>POT-0004</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -909,7 +909,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000005</v>
+        <v>POT-0005</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -951,7 +951,7 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000006</v>
+        <v>POT-0006</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -993,7 +993,7 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000007</v>
+        <v>POT-0007</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -1035,7 +1035,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000008</v>
+        <v>POT-0008</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -1077,7 +1077,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000009</v>
+        <v>POT-0009</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -1119,7 +1119,7 @@
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000010</v>
+        <v>POT-0010</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -1161,7 +1161,7 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000011</v>
+        <v>POT-0011</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -1203,7 +1203,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000012</v>
+        <v>POT-0012</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -1245,7 +1245,7 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000013</v>
+        <v>POT-0013</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -1287,7 +1287,7 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000014</v>
+        <v>POT-0014</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -1329,7 +1329,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000015</v>
+        <v>POT-0015</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -1371,7 +1371,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000016</v>
+        <v>POT-0016</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -1413,7 +1413,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000017</v>
+        <v>POT-0017</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -1455,7 +1455,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000018</v>
+        <v>POT-0018</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -1497,7 +1497,7 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000019</v>
+        <v>POT-0019</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -1539,7 +1539,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000020</v>
+        <v>POT-0020</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -1581,7 +1581,7 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>POT-000021</v>
+        <v>POT-0021</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>

--- a/electromechanical.xlsx
+++ b/electromechanical.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrne\Altium-Lib-Tom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD4399-41E2-4F61-8DB3-4BF780B58114}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA7BD4-FE94-40F2-AC7D-F282AB999FCE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9345" xr2:uid="{78D20A57-1DED-49B5-B563-D879E43957A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9345" activeTab="1" xr2:uid="{78D20A57-1DED-49B5-B563-D879E43957A9}"/>
   </bookViews>
   <sheets>
     <sheet name="potentiometers" sheetId="1" r:id="rId1"/>
+    <sheet name="switches" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
   <si>
     <t>TPN</t>
   </si>
@@ -291,6 +292,9 @@
   </si>
   <si>
     <t>Rectangular - 0.144" x 0.118" Face x 0.067" H (3.65mm x 3.00mm x 1.70mm)</t>
+  </si>
+  <si>
+    <t>SW-0002</t>
   </si>
 </sst>
 </file>
@@ -663,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2836C16-527F-40CD-92B2-0E8CE5C6790A}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,4 +1637,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1700078-188C-48D8-A57D-E23110E8B157}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"SW-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>SW-0001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/electromechanical.xlsx
+++ b/electromechanical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrne\Altium-Lib-Tom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA7BD4-FE94-40F2-AC7D-F282AB999FCE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A46304-B32E-42C7-9121-99622C8E1605}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="9345" activeTab="1" xr2:uid="{78D20A57-1DED-49B5-B563-D879E43957A9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="134">
   <si>
     <t>TPN</t>
   </si>
@@ -294,7 +294,145 @@
     <t>Rectangular - 0.144" x 0.118" Face x 0.067" H (3.65mm x 3.00mm x 1.70mm)</t>
   </si>
   <si>
-    <t>SW-0002</t>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Circuit</t>
+  </si>
+  <si>
+    <t>Switch Function</t>
+  </si>
+  <si>
+    <t>Current Rating</t>
+  </si>
+  <si>
+    <t>Voltage Rating - DC</t>
+  </si>
+  <si>
+    <t>Actuator Type</t>
+  </si>
+  <si>
+    <t>Color - Actuator/Cap</t>
+  </si>
+  <si>
+    <t>Illumination Type, Color</t>
+  </si>
+  <si>
+    <t>Illumination Voltage (Nominal)</t>
+  </si>
+  <si>
+    <t>Termination Style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingress Protection </t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Panel Cutout Dimensions</t>
+  </si>
+  <si>
+    <t>Operating Temperature</t>
+  </si>
+  <si>
+    <t>Mechanical Life</t>
+  </si>
+  <si>
+    <t>Electrical Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer 1 </t>
+  </si>
+  <si>
+    <t>Manufactuer 1 PN</t>
+  </si>
+  <si>
+    <t>Supplier 2 Link</t>
+  </si>
+  <si>
+    <t>FS5700</t>
+  </si>
+  <si>
+    <t>3PDT</t>
+  </si>
+  <si>
+    <t>On-On</t>
+  </si>
+  <si>
+    <t>1A (DC)</t>
+  </si>
+  <si>
+    <t>Round, Button</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Panel Mount, Rear</t>
+  </si>
+  <si>
+    <t>Solder Lug</t>
+  </si>
+  <si>
+    <t>Epoxy Sealed Terminals</t>
+  </si>
+  <si>
+    <t>Circular - 12.20mm Dia</t>
+  </si>
+  <si>
+    <t>-10°C ~ 70°C</t>
+  </si>
+  <si>
+    <t>30,000 Cycles</t>
+  </si>
+  <si>
+    <t>3PDT_SW</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>FS57003PLT2B2M1QEH</t>
+  </si>
+  <si>
+    <t>EG5491-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/e-switch/FS57003PLT2B2M1QEH/EG5491-ND/6825399</t>
+  </si>
+  <si>
+    <t>FS3PDT-PRO</t>
+  </si>
+  <si>
+    <t>https://www.mammothelectronics.com/collections/3pdt-switches/products/3pdt-ls-pro-footswitch</t>
+  </si>
+  <si>
+    <t>SWITCH PUSHBUTTON 3PDT 1A 9V</t>
+  </si>
+  <si>
+    <t>9V</t>
+  </si>
+  <si>
+    <t>3PDT_SW_SOLDERBOARD</t>
+  </si>
+  <si>
+    <t>3PDT_HDR</t>
+  </si>
+  <si>
+    <t>SWITCH PUSHBUTTON 3PDT 1A 9V on Solder Assist Board</t>
+  </si>
+  <si>
+    <t>FS57003PLT2B2M1QEH, 3PDT-Wiring-Board</t>
+  </si>
+  <si>
+    <t>3PDT Wiring Board</t>
+  </si>
+  <si>
+    <t>https://www.mammothelectronics.com/collections/wiring-boards/products/large-3pdt-wiring-board</t>
   </si>
 </sst>
 </file>
@@ -1641,15 +1779,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1700078-188C-48D8-A57D-E23110E8B157}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,72 +1798,284 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>"SW-"&amp;TEXT(ROW()-1,"0000")</f>
         <v>SW-0001</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>87</v>
+      <c r="B2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>"SW-"&amp;TEXT(ROW()-1,"0000")</f>
+        <v>SW-0002</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>